--- a/MainTop/12.08.2024/2недели Таня с 30.07.2024 по 12.08.2024/спрос_12-8-2024 2недели Таня с 30-7-2024 по 12-8-2024.xlsx
+++ b/MainTop/12.08.2024/2недели Таня с 30.07.2024 по 12.08.2024/спрос_12-8-2024 2недели Таня с 30-7-2024 по 12-8-2024.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
-    <t xml:space="preserve">Артикул продавца</t>
+    <t xml:space="preserve">Артикул</t>
   </si>
   <si>
     <t xml:space="preserve">Среднее количество заказов в день, шт</t>
@@ -677,12 +677,12 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I170" activeCellId="0" sqref="I170"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.67"/>
   </cols>
   <sheetData>
